--- a/HoI4 mod figures.xlsx
+++ b/HoI4 mod figures.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\tomwh\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomwh\Documents\GitHub\HerrTom_equipment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="100">
   <si>
     <t>Personnel ea</t>
   </si>
@@ -320,6 +320,15 @@
   </si>
   <si>
     <t>^AP, ^HA</t>
+  </si>
+  <si>
+    <t>Infantry</t>
+  </si>
+  <si>
+    <t>Battalions</t>
+  </si>
+  <si>
+    <t>Tank</t>
   </si>
 </sst>
 </file>
@@ -736,24 +745,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.86328125" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>41</v>
       </c>
@@ -776,7 +785,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -804,7 +813,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -835,7 +844,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -866,7 +875,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -897,7 +906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -928,7 +937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -959,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -990,7 +999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1018,7 +1027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -1046,81 +1055,139 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="C16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17">
         <v>765</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>765</v>
+      </c>
+      <c r="E17">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18">
         <v>654</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>495</v>
+      </c>
+      <c r="E18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>43</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>29</v>
       </c>
       <c r="C25">
         <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1133,18 +1200,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="66.400000000000006" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -1186,7 +1253,7 @@
       </c>
       <c r="O2" s="13"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -1231,7 +1298,7 @@
       </c>
       <c r="O3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -1253,7 +1320,7 @@
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I4" s="12">
         <v>0</v>
@@ -1261,12 +1328,14 @@
       <c r="J4" s="12">
         <v>0</v>
       </c>
-      <c r="K4" s="12"/>
+      <c r="K4" s="12">
+        <v>0.8</v>
+      </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -1288,7 +1357,7 @@
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I5" s="12">
         <v>0</v>
@@ -1296,12 +1365,14 @@
       <c r="J5" s="12">
         <v>0</v>
       </c>
-      <c r="K5" s="12"/>
+      <c r="K5" s="12">
+        <v>0.2</v>
+      </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -1331,12 +1402,14 @@
       <c r="J6" s="12">
         <v>0</v>
       </c>
-      <c r="K6" s="12"/>
+      <c r="K6" s="12">
+        <v>0.5</v>
+      </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -1366,14 +1439,16 @@
       <c r="J7" s="12">
         <v>0</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="12">
+        <v>0.5</v>
+      </c>
       <c r="L7" s="12">
         <v>0.1</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -1403,14 +1478,18 @@
       <c r="J8" s="12">
         <v>0</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="12">
+        <v>0.2</v>
+      </c>
       <c r="L8" s="12">
         <v>0.3</v>
       </c>
-      <c r="M8" s="12"/>
+      <c r="M8" s="12">
+        <v>1</v>
+      </c>
       <c r="N8" s="12"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -1440,14 +1519,16 @@
       <c r="J9" s="12">
         <v>0</v>
       </c>
-      <c r="K9" s="12"/>
+      <c r="K9" s="12">
+        <v>0.8</v>
+      </c>
       <c r="L9" s="12">
         <v>0.1</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C10">
         <f>SUM(C4:C9)</f>
         <v>4</v>
@@ -1466,7 +1547,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
@@ -1474,7 +1555,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
@@ -1494,14 +1575,14 @@
       <selection activeCell="C22" sqref="C22:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="128.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1521,7 +1602,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1540,7 +1621,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1560,7 +1641,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1577,7 +1658,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1596,7 +1677,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1615,7 +1696,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1633,7 +1714,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1652,7 +1733,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1672,7 +1753,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1689,7 +1770,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>45</v>
       </c>
@@ -1697,7 +1778,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -1732,7 +1813,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
@@ -1774,7 +1855,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1813,7 +1894,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1844,7 +1925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1867,7 +1948,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1892,7 +1973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1911,7 +1992,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1937,7 +2018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1960,7 +2041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1990,15 +2071,15 @@
       <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -2018,7 +2099,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2037,7 +2118,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2057,7 +2138,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2076,7 +2157,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2095,7 +2176,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2114,7 +2195,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2132,7 +2213,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2149,7 +2230,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2167,7 +2248,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2184,7 +2265,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>45</v>
       </c>
@@ -2205,18 +2286,18 @@
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="6" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.59765625" customWidth="1"/>
+    <col min="6" max="8" width="5.1328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -2248,7 +2329,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2282,7 +2363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2314,7 +2395,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2347,7 +2428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2370,7 +2451,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2397,7 +2478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2425,7 +2506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2450,7 +2531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2472,7 +2553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2489,7 +2570,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -2515,7 +2596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -2545,7 +2626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2575,7 +2656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2605,7 +2686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2631,7 +2712,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2650,7 +2731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2669,7 +2750,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2688,7 +2769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2705,7 +2786,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2722,7 +2803,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="28" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
@@ -2743,7 +2824,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>3</v>
       </c>
@@ -2761,7 +2842,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -2780,7 +2861,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -2799,7 +2880,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -2818,7 +2899,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -2837,7 +2918,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2856,7 +2937,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -2874,7 +2955,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -2893,7 +2974,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -2915,15 +2996,15 @@
       <selection activeCell="C2" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="5.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2952,7 +3033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2986,7 +3067,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3010,7 +3091,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3033,7 +3114,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3056,7 +3137,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3081,7 +3162,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3104,7 +3185,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -3129,7 +3210,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -3149,7 +3230,7 @@
       </c>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -3169,7 +3250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -3177,7 +3258,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -3186,7 +3267,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -3215,7 +3296,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3257,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3285,7 +3366,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3308,7 +3389,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3335,7 +3416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3358,7 +3439,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3377,7 +3458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B20" s="7"/>
       <c r="C20" s="8">
         <f t="shared" si="2"/>
@@ -3390,7 +3471,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="24" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -3421,7 +3502,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
@@ -3463,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -3493,7 +3574,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -3518,7 +3599,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3544,7 +3625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>20</v>
       </c>

--- a/HoI4 mod figures.xlsx
+++ b/HoI4 mod figures.xlsx
@@ -5,21 +5,24 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomwh\Documents\GitHub\HerrTom_equipment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\GitHub\HerrTom_equipment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="3" r:id="rId1"/>
-    <sheet name="Statistics" sheetId="6" r:id="rId2"/>
-    <sheet name="Soviet 1939" sheetId="4" r:id="rId3"/>
-    <sheet name="Finnish 1939" sheetId="5" r:id="rId4"/>
-    <sheet name="US 1944" sheetId="2" r:id="rId5"/>
-    <sheet name="German 1941" sheetId="1" r:id="rId6"/>
+    <sheet name="Components" sheetId="7" r:id="rId2"/>
+    <sheet name="Divisions" sheetId="8" r:id="rId3"/>
+    <sheet name="Statistics" sheetId="6" r:id="rId4"/>
+    <sheet name="Soviet 1939" sheetId="4" r:id="rId5"/>
+    <sheet name="Finnish 1939" sheetId="5" r:id="rId6"/>
+    <sheet name="US 1944" sheetId="2" r:id="rId7"/>
+    <sheet name="German 1941" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="164">
   <si>
     <t>Personnel ea</t>
   </si>
@@ -313,9 +316,6 @@
     <t>^SA, ^DEF</t>
   </si>
   <si>
-    <t>^DEF, ^SA, ^HA</t>
-  </si>
-  <si>
     <t>^BT, ^SA, ^HA</t>
   </si>
   <si>
@@ -329,17 +329,215 @@
   </si>
   <si>
     <t>Tank</t>
+  </si>
+  <si>
+    <t>Cost per btn</t>
+  </si>
+  <si>
+    <t>Per btn</t>
+  </si>
+  <si>
+    <t>Money cost</t>
+  </si>
+  <si>
+    <t>Production per btn</t>
+  </si>
+  <si>
+    <t>Hours by cost</t>
+  </si>
+  <si>
+    <t>Normalize by 1 IC is 1 production line per day</t>
+  </si>
+  <si>
+    <t>IC conversion</t>
+  </si>
+  <si>
+    <t>hour work day</t>
+  </si>
+  <si>
+    <t>parallel processes</t>
+  </si>
+  <si>
+    <t>Artillery</t>
+  </si>
+  <si>
+    <t>Motorized</t>
+  </si>
+  <si>
+    <t>Med tank</t>
+  </si>
+  <si>
+    <t>Heavy tank</t>
+  </si>
+  <si>
+    <t>Half track</t>
+  </si>
+  <si>
+    <t>Support eq (e.g. jeeps)</t>
+  </si>
+  <si>
+    <t>Fighter</t>
+  </si>
+  <si>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>Tac</t>
+  </si>
+  <si>
+    <t>Heavy</t>
+  </si>
+  <si>
+    <t>Naval</t>
+  </si>
+  <si>
+    <t>Heavy fighter</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Anti aircraft</t>
+  </si>
+  <si>
+    <t>Cost factor</t>
+  </si>
+  <si>
+    <t>Vanilla value</t>
+  </si>
+  <si>
+    <t>Assume truck carries</t>
+  </si>
+  <si>
+    <t>men, including crew</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Mechanized</t>
+  </si>
+  <si>
+    <t>Halftrack carries</t>
+  </si>
+  <si>
+    <t>Mech</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Support companies</t>
+  </si>
+  <si>
+    <t>Regiment</t>
+  </si>
+  <si>
+    <t>Divisional equipment</t>
+  </si>
+  <si>
+    <t>Support equipment</t>
+  </si>
+  <si>
+    <t>Anti Aircraft</t>
+  </si>
+  <si>
+    <t>extra personnel</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>Paratrooper</t>
+  </si>
+  <si>
+    <t>Marines</t>
+  </si>
+  <si>
+    <t>Anti-tank</t>
+  </si>
+  <si>
+    <t>Anti-air</t>
+  </si>
+  <si>
+    <t>Rocket artillery</t>
+  </si>
+  <si>
+    <t>Cavalry</t>
+  </si>
+  <si>
+    <t>Super Heavy Tank</t>
+  </si>
+  <si>
+    <t>Light Tank</t>
+  </si>
+  <si>
+    <t>Medium Tank</t>
+  </si>
+  <si>
+    <t>Heavy Tank</t>
+  </si>
+  <si>
+    <t>Modern Tank</t>
+  </si>
+  <si>
+    <t>Recon</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Field Hospital</t>
+  </si>
+  <si>
+    <t>Logistics Company</t>
+  </si>
+  <si>
+    <t>Maintenance Company</t>
+  </si>
+  <si>
+    <t>Military Police</t>
+  </si>
+  <si>
+    <t>Signal Company</t>
+  </si>
+  <si>
+    <t>Rocket Launcher</t>
+  </si>
+  <si>
+    <t>each</t>
+  </si>
+  <si>
+    <t>COMPLETED</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Motorized Artillery</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>infantry_equipment_mg</t>
+  </si>
+  <si>
+    <t>Need to update higher levels of equipment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,8 +575,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,8 +613,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -425,13 +654,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -460,12 +711,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
+    <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Heading 1" xfId="4" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -480,6 +765,1124 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IC conversion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Statistics!$A$3:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>vanilla infantry_equipment</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>infantry_equipment</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>infantry_equipment_smg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>infantry_equipment_mg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>infantry_equipment_at</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>infantry_equipment_mortar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Howitzer</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>AT Gun</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Light tank</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Med tank</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Heavy tank</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Truck</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Half track</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Support eq (e.g. jeeps)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Anti aircraft</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Fighter</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Heavy fighter</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>CAS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Tac</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Heavy</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Naval</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Transport</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Statistics!$U$3:$U$28</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="1">
+                  <c:v>4.4800000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8400000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51839999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2479999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6040000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>190.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>497.66799999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.071999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.352200000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>54.636400000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34.105499999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69.069000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>61.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vanilla value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Statistics!$A$3:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>vanilla infantry_equipment</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>infantry_equipment</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>infantry_equipment_smg</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>infantry_equipment_mg</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>infantry_equipment_at</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>infantry_equipment_mortar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Howitzer</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>AT Gun</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Light tank</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Med tank</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Heavy tank</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Truck</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Half track</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Support eq (e.g. jeeps)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Anti aircraft</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Fighter</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Heavy fighter</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>CAS</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Tac</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Heavy</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Naval</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Transport</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Statistics!$V$3:$V$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="416958400"/>
+        <c:axId val="416958792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="416958400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416958792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="416958792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416958400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -745,24 +2148,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.86328125" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>41</v>
       </c>
@@ -784,8 +2188,14 @@
       <c r="I4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -804,16 +2214,24 @@
       <c r="G5">
         <v>816</v>
       </c>
-      <c r="H5" s="15">
-        <f>MROUND(AVERAGE(C5:G5),5)</f>
+      <c r="H5" s="14">
+        <f t="shared" ref="H5:H13" si="0">MROUND(AVERAGE(C5:G5),5)</f>
         <v>765</v>
       </c>
       <c r="I5">
-        <f>MROUND(MEDIAN(C5:G5),5)</f>
+        <f t="shared" ref="I5:I13" si="1">MROUND(MEDIAN(C5:G5),5)</f>
         <v>725</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J5">
+        <f>J6+J7+J8+J9*2+J10+J11*4+J12*5+J14</f>
+        <v>846</v>
+      </c>
+      <c r="K5">
+        <f>K6+K7+K8+K9*2+K10+K11*4+K12*5+K14+K15*2+K13*5</f>
+        <v>936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -835,16 +2253,25 @@
       <c r="G6">
         <v>523</v>
       </c>
-      <c r="H6" s="15">
-        <f t="shared" ref="H6:H13" si="0">MROUND(AVERAGE(C6:G6),5)</f>
+      <c r="H6" s="14">
+        <f t="shared" si="0"/>
         <v>495</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I13" si="1">MROUND(MEDIAN(C6:G6),5)</f>
+        <f t="shared" si="1"/>
         <v>525</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J6">
+        <v>495</v>
+      </c>
+      <c r="K6">
+        <v>495</v>
+      </c>
+      <c r="M6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -866,7 +2293,7 @@
       <c r="G7">
         <v>120</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -874,8 +2301,20 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J7">
+        <v>60</v>
+      </c>
+      <c r="K7">
+        <v>60</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -897,7 +2336,7 @@
       <c r="G8">
         <v>27</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -905,8 +2344,17 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -928,7 +2376,7 @@
       <c r="G9">
         <v>26</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -936,8 +2384,20 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J9">
+        <v>25</v>
+      </c>
+      <c r="K9">
+        <v>25</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -959,7 +2419,7 @@
       <c r="G10">
         <v>24</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -967,8 +2427,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -990,7 +2456,7 @@
       <c r="G11">
         <v>17</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -998,8 +2464,14 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1018,7 +2490,7 @@
       <c r="G12">
         <v>6</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1026,8 +2498,14 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -1046,7 +2524,7 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1054,140 +2532,31 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>765</v>
-      </c>
-      <c r="D17">
-        <v>765</v>
-      </c>
-      <c r="E17">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18">
-        <v>654</v>
-      </c>
-      <c r="D18">
-        <v>495</v>
-      </c>
-      <c r="E18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19">
-        <v>36</v>
-      </c>
-      <c r="D19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>36</v>
-      </c>
-      <c r="D20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="E27">
-        <v>50</v>
+      <c r="J14">
+        <v>76</v>
+      </c>
+      <c r="K14">
+        <v>22</v>
+      </c>
+      <c r="L14">
+        <f>K14*M7+K15*M9</f>
+        <v>984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1198,368 +2567,1420 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O10"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="20" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="66.400000000000006" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="75.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="12"/>
       <c r="C2" s="11" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="25">
+        <f t="shared" ref="C3:T3" si="0">SUMPRODUCT(C4:C21,$A4:$A21)</f>
+        <v>762</v>
+      </c>
+      <c r="D3" s="25">
+        <f t="shared" si="0"/>
+        <v>825</v>
+      </c>
+      <c r="E3" s="25">
+        <f t="shared" si="0"/>
+        <v>825</v>
+      </c>
+      <c r="F3" s="25">
+        <f t="shared" si="0"/>
+        <v>825</v>
+      </c>
+      <c r="G3" s="25">
+        <f t="shared" si="0"/>
+        <v>825</v>
+      </c>
+      <c r="H3" s="25">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="I3" s="25">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="J3" s="25">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="K3" s="25">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="L3" s="25">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="M3" s="25">
+        <f t="shared" si="0"/>
+        <v>901</v>
+      </c>
+      <c r="N3" s="25">
+        <f t="shared" si="0"/>
+        <v>991</v>
+      </c>
+      <c r="O3" s="25">
+        <f t="shared" si="0"/>
+        <v>915</v>
+      </c>
+      <c r="P3" s="25">
+        <f t="shared" si="0"/>
+        <v>466</v>
+      </c>
+      <c r="Q3" s="25">
+        <f t="shared" si="0"/>
+        <v>334</v>
+      </c>
+      <c r="R3" s="25">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="S3" s="25">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="T3" s="25">
+        <f t="shared" si="0"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="12">
+        <v>654</v>
+      </c>
+      <c r="D4" s="12">
+        <v>495</v>
+      </c>
+      <c r="E4" s="12">
+        <v>495</v>
+      </c>
+      <c r="F4" s="12">
+        <v>495</v>
+      </c>
+      <c r="G4" s="12">
+        <v>495</v>
+      </c>
+      <c r="H4" s="12">
+        <v>60</v>
+      </c>
+      <c r="I4" s="12">
+        <v>60</v>
+      </c>
+      <c r="J4" s="12">
+        <v>60</v>
+      </c>
+      <c r="K4" s="12">
+        <v>30</v>
+      </c>
+      <c r="L4" s="12">
+        <v>30</v>
+      </c>
+      <c r="M4" s="12">
+        <v>495</v>
+      </c>
+      <c r="N4" s="12">
+        <v>495</v>
+      </c>
+      <c r="O4" s="12">
+        <v>495</v>
+      </c>
+      <c r="P4" s="12">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="12">
+        <f>Q13-11</f>
+        <v>30</v>
+      </c>
+      <c r="R4" s="12">
+        <v>20</v>
+      </c>
+      <c r="S4" s="12">
+        <v>20</v>
+      </c>
+      <c r="T4" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="12">
+        <v>36</v>
+      </c>
+      <c r="D5" s="12">
+        <v>60</v>
+      </c>
+      <c r="E5" s="12">
+        <v>60</v>
+      </c>
+      <c r="F5" s="12">
+        <v>60</v>
+      </c>
+      <c r="G5" s="12">
+        <v>60</v>
+      </c>
+      <c r="H5" s="12">
+        <v>20</v>
+      </c>
+      <c r="I5" s="12">
+        <v>20</v>
+      </c>
+      <c r="J5" s="12">
+        <v>20</v>
+      </c>
+      <c r="K5" s="12">
+        <v>10</v>
+      </c>
+      <c r="L5" s="12">
+        <v>10</v>
+      </c>
+      <c r="M5" s="12">
+        <v>60</v>
+      </c>
+      <c r="N5" s="12">
+        <v>60</v>
+      </c>
+      <c r="O5" s="12">
+        <v>60</v>
+      </c>
+      <c r="P5" s="12">
+        <f>P4*3</f>
+        <v>150</v>
+      </c>
+      <c r="Q5" s="12">
+        <f>Q4*3</f>
+        <v>90</v>
+      </c>
+      <c r="R5" s="12">
+        <f>R4*3</f>
+        <v>60</v>
+      </c>
+      <c r="S5" s="12">
+        <f>S4*3</f>
+        <v>60</v>
+      </c>
+      <c r="T5" s="12">
+        <f>T4*3</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="12">
+        <v>36</v>
+      </c>
+      <c r="D6" s="12">
+        <v>75</v>
+      </c>
+      <c r="E6" s="12">
+        <v>75</v>
+      </c>
+      <c r="F6" s="12">
+        <v>75</v>
+      </c>
+      <c r="G6" s="12">
+        <v>75</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12">
+        <v>75</v>
+      </c>
+      <c r="N6" s="12">
+        <v>75</v>
+      </c>
+      <c r="O6" s="12">
+        <v>75</v>
+      </c>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12">
+        <v>10</v>
+      </c>
+      <c r="F7" s="12">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12">
+        <v>10</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12">
+        <v>10</v>
+      </c>
+      <c r="N7" s="12">
+        <v>10</v>
+      </c>
+      <c r="O7" s="12">
+        <v>10</v>
+      </c>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12">
+        <v>20</v>
+      </c>
+      <c r="E8" s="12">
+        <v>20</v>
+      </c>
+      <c r="F8" s="12">
+        <v>20</v>
+      </c>
+      <c r="G8" s="12">
+        <v>20</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12">
+        <v>20</v>
+      </c>
+      <c r="N8" s="12">
+        <v>20</v>
+      </c>
+      <c r="O8" s="12">
+        <v>20</v>
+      </c>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12">
+        <v>6</v>
+      </c>
+      <c r="E9" s="12">
+        <v>6</v>
+      </c>
+      <c r="F9" s="12">
+        <v>6</v>
+      </c>
+      <c r="G9" s="12">
+        <v>6</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12">
+        <v>36</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12">
+        <v>6</v>
+      </c>
+      <c r="N9" s="12">
+        <v>6</v>
+      </c>
+      <c r="O9" s="12">
+        <v>6</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12">
+        <v>36</v>
+      </c>
+      <c r="I10" s="12">
+        <v>36</v>
+      </c>
+      <c r="J10" s="12">
+        <v>36</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12">
+        <v>41</v>
+      </c>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12">
+        <v>31</v>
+      </c>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12">
+        <v>13</v>
+      </c>
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12">
+        <v>46</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12">
+        <v>76</v>
+      </c>
+      <c r="N17" s="12">
+        <v>22</v>
+      </c>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12">
+        <v>80</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>50</v>
+      </c>
+      <c r="R17" s="12">
+        <v>50</v>
+      </c>
+      <c r="S17" s="12">
+        <v>50</v>
+      </c>
+      <c r="T17" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12">
         <v>72</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="13"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12">
+        <v>36</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12">
         <v>90</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+    </row>
+    <row r="22" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="S22" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="T22" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="25">
+        <f t="shared" ref="C26:M26" si="1">SUMPRODUCT(C27:C44,$A27:$A44)</f>
+        <v>168</v>
+      </c>
+      <c r="D26" s="25">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+      <c r="E26" s="25">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+      <c r="F26" s="25">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G26" s="25">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="H26" s="25">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="I26" s="25">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="J26" s="25">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="K26" s="25">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="L26" s="25">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="M26" s="25">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="12">
+        <v>20</v>
+      </c>
+      <c r="D27" s="12">
+        <v>20</v>
+      </c>
+      <c r="E27" s="12">
+        <v>20</v>
+      </c>
+      <c r="F27" s="12">
+        <v>20</v>
+      </c>
+      <c r="G27" s="12">
+        <v>60</v>
+      </c>
+      <c r="H27" s="12">
+        <v>60</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12">
+        <v>60</v>
+      </c>
+      <c r="L27" s="12">
+        <v>120</v>
+      </c>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="12">
+        <v>8</v>
+      </c>
+      <c r="D28" s="12">
+        <v>8</v>
+      </c>
+      <c r="E28" s="12">
+        <v>8</v>
+      </c>
+      <c r="F28" s="12">
+        <v>8</v>
+      </c>
+      <c r="G28" s="12">
+        <f>G27/3</f>
+        <v>20</v>
+      </c>
+      <c r="H28" s="12">
+        <f>H27/3</f>
+        <v>20</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12">
+        <v>15</v>
+      </c>
+      <c r="L28" s="12">
+        <v>80</v>
+      </c>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12">
+        <f>G28/2</f>
+        <v>10</v>
+      </c>
+      <c r="H29" s="12">
+        <f>H28/2</f>
+        <v>10</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12">
+        <v>20</v>
+      </c>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>4</v>
       </c>
-      <c r="D3" s="16">
+      <c r="B31" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="12">
+        <v>24</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12">
+        <v>12</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12">
+        <v>24</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>1</v>
       </c>
-      <c r="E3" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="F3" s="16">
+      <c r="B40" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="16">
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12">
         <v>20</v>
       </c>
-      <c r="H3" s="16">
+      <c r="J40" s="12">
+        <v>15</v>
+      </c>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>2</v>
       </c>
-      <c r="I3" s="16">
-        <v>0</v>
-      </c>
-      <c r="J3" s="16">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
-        <v>3</v>
-      </c>
-      <c r="L3" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="M3" s="16">
+      <c r="B41" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>1</v>
       </c>
-      <c r="N3" s="16">
-        <v>0</v>
-      </c>
-      <c r="O3" s="14"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="12">
-        <f>C4/4</f>
-        <v>0.125</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="F4" s="12">
-        <v>4</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="B42" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12">
+        <v>50</v>
+      </c>
+      <c r="H42" s="12">
+        <v>300</v>
+      </c>
+      <c r="I42" s="12">
+        <v>300</v>
+      </c>
+      <c r="J42" s="12">
+        <v>20</v>
+      </c>
+      <c r="K42" s="12">
+        <v>25</v>
+      </c>
+      <c r="L42" s="12">
+        <v>10</v>
+      </c>
+      <c r="M42" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12">
+        <v>20</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="12">
+        <v>20</v>
+      </c>
+      <c r="D44" s="12">
+        <v>30</v>
+      </c>
+      <c r="E44" s="12">
         <v>60</v>
       </c>
-      <c r="C5" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="12">
-        <f t="shared" ref="D5:D9" si="0">C5/4</f>
-        <v>0.125</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="F5" s="12">
-        <v>4</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="D6" s="12">
-        <f t="shared" si="0"/>
-        <v>0.1875</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="F6" s="12">
-        <v>4</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1.25</v>
-      </c>
-      <c r="D7" s="12">
-        <f t="shared" si="0"/>
-        <v>0.3125</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="F7" s="12">
-        <v>4</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="12">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="F8" s="12">
-        <v>4</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="M8" s="12">
-        <v>1</v>
-      </c>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="12">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="F9" s="12">
-        <v>4</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-      <c r="K9" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="L9" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C10">
-        <f>SUM(C4:C9)</f>
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ref="D10:N10" si="1">SUM(D4:D9)</f>
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F44" s="12">
+        <v>20</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12">
+        <v>60</v>
+      </c>
+      <c r="J44" s="12">
+        <v>120</v>
+      </c>
+      <c r="K44" s="12">
+        <v>90</v>
+      </c>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="L45" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="M45" s="22" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1569,20 +3990,1651 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="J2" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Components!$2:$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4:G8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Components!$24:$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Z30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="W29" sqref="W29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5" style="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E3" s="15">
+        <v>4</v>
+      </c>
+      <c r="F3" s="15">
+        <v>20</v>
+      </c>
+      <c r="G3" s="15">
+        <v>2</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>3</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="15">
+        <v>1</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15">
+        <v>100</v>
+      </c>
+      <c r="P3" s="15">
+        <f>O3*B3</f>
+        <v>40</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="17">
+        <f>Q3*O3</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="17"/>
+      <c r="W3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="12">
+        <f>U4</f>
+        <v>4.4800000000000006E-2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="12">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12">
+        <v>8</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12">
+        <v>495</v>
+      </c>
+      <c r="P4" s="12">
+        <f>O4*B4</f>
+        <v>22.176000000000002</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>28</v>
+      </c>
+      <c r="R4" s="18">
+        <f t="shared" ref="R4:R6" si="0">Q4*O4</f>
+        <v>13860</v>
+      </c>
+      <c r="S4" s="20">
+        <v>0.32</v>
+      </c>
+      <c r="T4" s="20">
+        <f>Q4*S4</f>
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="U4" s="21">
+        <f>T4/$Y$6/$Y$7</f>
+        <v>4.4800000000000006E-2</v>
+      </c>
+      <c r="V4" s="12"/>
+      <c r="W4" t="s">
+        <v>91</v>
+      </c>
+      <c r="X4" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="12">
+        <f t="shared" ref="B5:B6" si="1">U5</f>
+        <v>3.8400000000000004E-2</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="12">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12">
+        <v>60</v>
+      </c>
+      <c r="P5" s="12">
+        <f t="shared" ref="P5:P6" si="2">O5*B5</f>
+        <v>2.3040000000000003</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>24</v>
+      </c>
+      <c r="R5" s="18">
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+      <c r="S5" s="20">
+        <v>0.32</v>
+      </c>
+      <c r="T5" s="20">
+        <f t="shared" ref="T5:T6" si="3">Q5*S5</f>
+        <v>7.68</v>
+      </c>
+      <c r="U5" s="21">
+        <f>T5/$Y$6/$Y$7</f>
+        <v>3.8400000000000004E-2</v>
+      </c>
+      <c r="V5" s="12"/>
+      <c r="W5" t="s">
+        <v>92</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="12">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12">
+        <v>5</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12">
+        <v>50</v>
+      </c>
+      <c r="P6" s="12">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>100</v>
+      </c>
+      <c r="R6" s="18">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="S6" s="20">
+        <v>0.32</v>
+      </c>
+      <c r="T6" s="20">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="U6" s="21">
+        <f>T6/$Y$6/$Y$7</f>
+        <v>0.16</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y6">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="12">
+        <f>U7</f>
+        <v>0.128</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="12">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12">
+        <v>10</v>
+      </c>
+      <c r="P7" s="12">
+        <f>O7*B7</f>
+        <v>1.28</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>80</v>
+      </c>
+      <c r="R7" s="18">
+        <f>Q7*O7</f>
+        <v>800</v>
+      </c>
+      <c r="S7" s="20">
+        <v>0.32</v>
+      </c>
+      <c r="T7" s="20">
+        <f>Q7*S7</f>
+        <v>25.6</v>
+      </c>
+      <c r="U7" s="21">
+        <f>T7/$Y$6/$Y$7</f>
+        <v>0.128</v>
+      </c>
+      <c r="V7" s="12"/>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y7">
+        <v>20</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="12">
+        <f>U8</f>
+        <v>0.51839999999999997</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="12">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12">
+        <v>3</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12">
+        <v>20</v>
+      </c>
+      <c r="P8" s="12">
+        <f>O8*B8</f>
+        <v>10.367999999999999</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>324</v>
+      </c>
+      <c r="R8" s="18">
+        <f>Q8*O8</f>
+        <v>6480</v>
+      </c>
+      <c r="S8" s="20">
+        <v>0.32</v>
+      </c>
+      <c r="T8" s="20">
+        <f>Q8*S8</f>
+        <v>103.68</v>
+      </c>
+      <c r="U8" s="21">
+        <f>T8/$Y$6/$Y$7</f>
+        <v>0.51839999999999997</v>
+      </c>
+      <c r="V8" s="12"/>
+      <c r="W8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="33">
+        <f>SUM(B4:B8)</f>
+        <v>0.88959999999999995</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="F9" s="33">
+        <f>SUM(F4:F8)</f>
+        <v>20</v>
+      </c>
+      <c r="G9" s="33">
+        <f>SUM(G4:G8)</f>
+        <v>2</v>
+      </c>
+      <c r="J9" s="33">
+        <f>SUM(J4:J8)</f>
+        <v>3</v>
+      </c>
+      <c r="K9" s="33">
+        <f>SUM(K4:K8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="33">
+        <f>SUM(L4:L8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="12">
+        <f t="shared" ref="B10:B19" si="4">U10</f>
+        <v>5.2479999999999993</v>
+      </c>
+      <c r="C10" s="12">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12">
+        <v>36</v>
+      </c>
+      <c r="P10" s="12">
+        <f t="shared" ref="P10:P19" si="5">O10*B10</f>
+        <v>188.92799999999997</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>6560</v>
+      </c>
+      <c r="R10" s="18">
+        <f t="shared" ref="R10:R19" si="6">Q10*O10</f>
+        <v>236160</v>
+      </c>
+      <c r="S10" s="20">
+        <v>0.16</v>
+      </c>
+      <c r="T10" s="20">
+        <f>Q10*S10</f>
+        <v>1049.5999999999999</v>
+      </c>
+      <c r="U10" s="21">
+        <f>T10/$Y$6/$Y$7</f>
+        <v>5.2479999999999993</v>
+      </c>
+      <c r="V10" s="12">
+        <v>35</v>
+      </c>
+      <c r="X10" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="12">
+        <f>U11</f>
+        <v>3.6040000000000005</v>
+      </c>
+      <c r="C11" s="12">
+        <v>5</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12">
+        <v>5</v>
+      </c>
+      <c r="P11" s="12">
+        <f>O11*B11</f>
+        <v>18.020000000000003</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>4240</v>
+      </c>
+      <c r="R11" s="18">
+        <f>Q11*O11</f>
+        <v>21200</v>
+      </c>
+      <c r="S11" s="20">
+        <v>0.17</v>
+      </c>
+      <c r="T11" s="20">
+        <f>Q11*S11</f>
+        <v>720.80000000000007</v>
+      </c>
+      <c r="U11" s="21">
+        <f>T11/$Y$6/$Y$7</f>
+        <v>3.6040000000000005</v>
+      </c>
+      <c r="V11" s="12">
+        <v>4</v>
+      </c>
+      <c r="X11" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="12">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="C12" s="12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12">
+        <v>40</v>
+      </c>
+      <c r="P12" s="12">
+        <f t="shared" si="5"/>
+        <v>3320</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>20000</v>
+      </c>
+      <c r="R12" s="18">
+        <f t="shared" si="6"/>
+        <v>800000</v>
+      </c>
+      <c r="S12" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="T12" s="20">
+        <f t="shared" ref="T12:T19" si="7">Q12*S12</f>
+        <v>16600</v>
+      </c>
+      <c r="U12" s="21">
+        <f>T12/$Y$6/$Y$7</f>
+        <v>83</v>
+      </c>
+      <c r="V12" s="12"/>
+      <c r="X12" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="12">
+        <f t="shared" si="4"/>
+        <v>190.9</v>
+      </c>
+      <c r="C13" s="12">
+        <v>15</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12">
+        <v>40</v>
+      </c>
+      <c r="P13" s="12">
+        <f t="shared" si="5"/>
+        <v>7636</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>46000</v>
+      </c>
+      <c r="R13" s="18">
+        <f t="shared" si="6"/>
+        <v>1840000</v>
+      </c>
+      <c r="S13" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="T13" s="20">
+        <f t="shared" si="7"/>
+        <v>38180</v>
+      </c>
+      <c r="U13" s="21">
+        <f>T13/$Y$6/$Y$7</f>
+        <v>190.9</v>
+      </c>
+      <c r="V13" s="12"/>
+      <c r="X13" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="12">
+        <f t="shared" si="4"/>
+        <v>497.66799999999995</v>
+      </c>
+      <c r="C14" s="12">
+        <v>20</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12">
+        <v>40</v>
+      </c>
+      <c r="P14" s="12">
+        <f t="shared" si="5"/>
+        <v>19906.719999999998</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>119920</v>
+      </c>
+      <c r="R14" s="18">
+        <f t="shared" si="6"/>
+        <v>4796800</v>
+      </c>
+      <c r="S14" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="T14" s="20">
+        <f t="shared" si="7"/>
+        <v>99533.599999999991</v>
+      </c>
+      <c r="U14" s="21">
+        <f>T14/$Y$6/$Y$7</f>
+        <v>497.66799999999995</v>
+      </c>
+      <c r="V14" s="12"/>
+      <c r="X14" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C15" s="12">
+        <v>10</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12">
+        <v>80</v>
+      </c>
+      <c r="P15" s="12">
+        <f t="shared" si="5"/>
+        <v>408</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>1700</v>
+      </c>
+      <c r="R15" s="18">
+        <f t="shared" si="6"/>
+        <v>136000</v>
+      </c>
+      <c r="S15" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="T15" s="20">
+        <f t="shared" si="7"/>
+        <v>1020</v>
+      </c>
+      <c r="U15" s="21">
+        <f>T15/$Y$6/$Y$7</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="V15" s="12">
+        <v>25</v>
+      </c>
+      <c r="X15" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="12">
+        <f t="shared" si="4"/>
+        <v>27.071999999999996</v>
+      </c>
+      <c r="C16" s="12">
+        <v>10</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12">
+        <v>80</v>
+      </c>
+      <c r="P16" s="12">
+        <f t="shared" si="5"/>
+        <v>2165.7599999999998</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>9024</v>
+      </c>
+      <c r="R16" s="18">
+        <f t="shared" si="6"/>
+        <v>721920</v>
+      </c>
+      <c r="S16" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="T16" s="20">
+        <f t="shared" si="7"/>
+        <v>5414.4</v>
+      </c>
+      <c r="U16" s="21">
+        <f>T16/$Y$6/$Y$7</f>
+        <v>27.071999999999996</v>
+      </c>
+      <c r="V16" s="12">
+        <v>60</v>
+      </c>
+      <c r="X16" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="12">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C17" s="12">
+        <v>5</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12">
+        <v>80</v>
+      </c>
+      <c r="P17" s="12">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>1200</v>
+      </c>
+      <c r="R17" s="18">
+        <f t="shared" si="6"/>
+        <v>96000</v>
+      </c>
+      <c r="S17" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="T17" s="20">
+        <f t="shared" si="7"/>
+        <v>600</v>
+      </c>
+      <c r="U17" s="21">
+        <f>T17/$Y$6/$Y$7</f>
+        <v>3</v>
+      </c>
+      <c r="V17" s="12">
+        <v>4</v>
+      </c>
+      <c r="X17" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="12">
+        <f t="shared" si="4"/>
+        <v>3.6</v>
+      </c>
+      <c r="C18" s="12">
+        <v>3</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12">
+        <v>80</v>
+      </c>
+      <c r="P18" s="12">
+        <f t="shared" si="5"/>
+        <v>288</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>2400</v>
+      </c>
+      <c r="R18" s="18">
+        <f t="shared" si="6"/>
+        <v>192000</v>
+      </c>
+      <c r="S18" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="T18" s="20">
+        <f t="shared" si="7"/>
+        <v>720</v>
+      </c>
+      <c r="U18" s="21">
+        <f>T18/$Y$6/$Y$7</f>
+        <v>3.6</v>
+      </c>
+      <c r="V18" s="12">
+        <v>4</v>
+      </c>
+      <c r="X18" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" ref="C10:C19" si="8">B19/4</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12">
+        <v>80</v>
+      </c>
+      <c r="P19" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="21">
+        <f>T19/$Y$6/$Y$7</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="12"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="12">
+        <f t="shared" ref="B22:B27" si="9">U22</f>
+        <v>22.352200000000003</v>
+      </c>
+      <c r="C22" s="12">
+        <v>15</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12">
+        <f t="shared" ref="P22:P27" si="10">O22*B22</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>34388</v>
+      </c>
+      <c r="R22" s="18">
+        <f t="shared" ref="R22:R27" si="11">Q22*O22</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="T22" s="20">
+        <f t="shared" ref="T22:T28" si="12">Q22*S22</f>
+        <v>4470.4400000000005</v>
+      </c>
+      <c r="U22" s="21">
+        <f>T22/$Y$6/$Y$7</f>
+        <v>22.352200000000003</v>
+      </c>
+      <c r="V22" s="12">
+        <v>22</v>
+      </c>
+      <c r="X22" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="12">
+        <f>U23</f>
+        <v>54.636400000000002</v>
+      </c>
+      <c r="C23" s="12">
+        <v>20</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12">
+        <f>O23*B23</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>84056</v>
+      </c>
+      <c r="R23" s="18">
+        <f>Q23*O23</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="T23" s="20">
+        <f t="shared" si="12"/>
+        <v>10927.28</v>
+      </c>
+      <c r="U23" s="21">
+        <f>T23/$Y$6/$Y$7</f>
+        <v>54.636400000000002</v>
+      </c>
+      <c r="V23" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="12">
+        <f t="shared" si="9"/>
+        <v>34.105499999999999</v>
+      </c>
+      <c r="C24" s="12">
+        <v>15</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>52470</v>
+      </c>
+      <c r="R24" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="T24" s="20">
+        <f t="shared" si="12"/>
+        <v>6821.1</v>
+      </c>
+      <c r="U24" s="21">
+        <f>T24/$Y$6/$Y$7</f>
+        <v>34.105499999999999</v>
+      </c>
+      <c r="V24" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="12">
+        <f t="shared" si="9"/>
+        <v>69.069000000000003</v>
+      </c>
+      <c r="C25" s="12">
+        <v>30</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>106260</v>
+      </c>
+      <c r="R25" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="T25" s="20">
+        <f t="shared" si="12"/>
+        <v>13813.800000000001</v>
+      </c>
+      <c r="U25" s="21">
+        <f>T25/$Y$6/$Y$7</f>
+        <v>69.069000000000003</v>
+      </c>
+      <c r="V25" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="12">
+        <f t="shared" si="9"/>
+        <v>130</v>
+      </c>
+      <c r="C26" s="12">
+        <v>50</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>200000</v>
+      </c>
+      <c r="R26" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="T26" s="20">
+        <f t="shared" si="12"/>
+        <v>26000</v>
+      </c>
+      <c r="U26" s="21">
+        <f>T26/$Y$6/$Y$7</f>
+        <v>130</v>
+      </c>
+      <c r="V26" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="12">
+        <f t="shared" si="9"/>
+        <v>61.1</v>
+      </c>
+      <c r="C27" s="12">
+        <v>50</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>94000</v>
+      </c>
+      <c r="R27" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="T27" s="20">
+        <f t="shared" si="12"/>
+        <v>12220</v>
+      </c>
+      <c r="U27" s="21">
+        <f>T27/$Y$6/$Y$7</f>
+        <v>61.1</v>
+      </c>
+      <c r="V27" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="12">
+        <f>U28</f>
+        <v>42.38</v>
+      </c>
+      <c r="C28" s="12">
+        <v>50</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12">
+        <f>O28*B28</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>65200</v>
+      </c>
+      <c r="R28" s="18">
+        <f>Q28*O28</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="20">
+        <v>0.13</v>
+      </c>
+      <c r="T28" s="20">
+        <f t="shared" si="12"/>
+        <v>8476</v>
+      </c>
+      <c r="U28" s="21">
+        <f>T28/$Y$6/$Y$7</f>
+        <v>42.38</v>
+      </c>
+      <c r="V28" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C22" sqref="C22:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="128.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1602,7 +5654,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1621,7 +5673,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1641,7 +5693,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1658,7 +5710,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1677,7 +5729,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1696,7 +5748,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1714,7 +5766,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1733,7 +5785,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1753,7 +5805,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1770,7 +5822,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>45</v>
       </c>
@@ -1778,7 +5830,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="84.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -1813,7 +5865,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
@@ -1855,7 +5907,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1894,7 +5946,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1925,7 +5977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1948,7 +6000,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1973,7 +6025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1992,7 +6044,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2018,7 +6070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2041,7 +6093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2063,7 +6115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
@@ -2071,15 +6123,15 @@
       <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.73046875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -2099,7 +6151,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2118,7 +6170,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2138,7 +6190,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2157,7 +6209,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2176,7 +6228,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2195,7 +6247,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2213,7 +6265,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2230,7 +6282,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2248,7 +6300,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2265,7 +6317,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>45</v>
       </c>
@@ -2278,7 +6330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
@@ -2286,18 +6338,18 @@
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.59765625" customWidth="1"/>
-    <col min="6" max="8" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="8" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -2329,7 +6381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2339,11 +6391,11 @@
         <v>816</v>
       </c>
       <c r="D2" s="9">
-        <f>SUMPRODUCT(D3:D10,$B3:$B10)</f>
+        <f t="shared" ref="D2:I2" si="1">SUMPRODUCT(D3:D10,$B3:$B10)</f>
         <v>31</v>
       </c>
       <c r="E2" s="9">
-        <f t="shared" ref="E2:I2" si="1">SUMPRODUCT(E3:E10,$B3:$B10)</f>
+        <f t="shared" si="1"/>
         <v>208</v>
       </c>
       <c r="F2" s="9">
@@ -2363,7 +6415,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2395,7 +6447,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2428,7 +6480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2451,7 +6503,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2478,7 +6530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2506,7 +6558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2531,7 +6583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2553,7 +6605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2570,7 +6622,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -2596,7 +6648,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -2610,23 +6662,23 @@
         <v>42</v>
       </c>
       <c r="E14" s="9">
-        <f t="shared" ref="E14" si="3">SUMPRODUCT(E15:E22,$B15:$B22)</f>
+        <f>SUMPRODUCT(E15:E22,$B15:$B22)</f>
         <v>45</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" ref="F14" si="4">SUMPRODUCT(F15:F22,$B15:$B22)</f>
+        <f>SUMPRODUCT(F15:F22,$B15:$B22)</f>
         <v>45</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" ref="G14:H14" si="5">SUMPRODUCT(G15:G22,$B15:$B22)</f>
+        <f>SUMPRODUCT(G15:G22,$B15:$B22)</f>
         <v>45</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" si="5"/>
+        <f>SUMPRODUCT(H15:H22,$B15:$B22)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2656,7 +6708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2686,7 +6738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2712,7 +6764,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2731,7 +6783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2750,7 +6802,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2769,7 +6821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2786,7 +6838,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2803,7 +6855,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="28" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
@@ -2824,13 +6876,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="8">
-        <f t="shared" ref="C29:C34" si="6">SUM(D29:K29)</f>
+        <f t="shared" ref="C29:C34" si="3">SUM(D29:K29)</f>
         <v>721</v>
       </c>
       <c r="D29" s="9">
@@ -2842,7 +6894,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -2850,7 +6902,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="D30" s="9">
@@ -2861,7 +6913,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -2869,7 +6921,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="D31" s="9">
@@ -2880,7 +6932,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -2888,7 +6940,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D32" s="9">
@@ -2899,7 +6951,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -2907,7 +6959,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="D33" s="9">
@@ -2918,7 +6970,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2926,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="D34" s="9">
@@ -2937,7 +6989,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -2955,7 +7007,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -2974,7 +7026,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
@@ -2988,7 +7040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
@@ -2996,15 +7048,15 @@
       <selection activeCell="C2" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -3033,7 +7085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -3043,11 +7095,11 @@
         <v>922</v>
       </c>
       <c r="D2" s="9">
-        <f>SUMPRODUCT(D3:D10,$B3:$B10)</f>
+        <f t="shared" ref="D2:I2" si="1">SUMPRODUCT(D3:D10,$B3:$B10)</f>
         <v>257</v>
       </c>
       <c r="E2" s="9">
-        <f t="shared" ref="E2:I2" si="1">SUMPRODUCT(E3:E10,$B3:$B10)</f>
+        <f t="shared" si="1"/>
         <v>257</v>
       </c>
       <c r="F2" s="9">
@@ -3067,7 +7119,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3091,7 +7143,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3114,7 +7166,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3137,7 +7189,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3162,7 +7214,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3185,7 +7237,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -3210,7 +7262,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -3230,7 +7282,7 @@
       </c>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -3250,7 +7302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
@@ -3258,7 +7310,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -3267,7 +7319,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -3296,7 +7348,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -3338,7 +7390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3366,7 +7418,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3389,7 +7441,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3416,7 +7468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3439,7 +7491,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3458,7 +7510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="8">
         <f t="shared" si="2"/>
@@ -3471,7 +7523,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="24" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -3502,7 +7554,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
@@ -3544,7 +7596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -3574,7 +7626,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -3599,7 +7651,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3625,7 +7677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
